--- a/classification/droptc/sentence/bert-base-uncased/freeze/67351593/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/freeze/67351593/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4117411375045776</v>
+        <v>0.9581549167633057</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8093834519386292</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6465643644332886</v>
+        <v>0.6445507407188416</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6125925779342651</v>
+        <v>0.6001526117324829</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7973946928977966</v>
+        <v>0.9927512407302856</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7957401871681213</v>
+        <v>0.8971951007843018</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4633499383926392</v>
+        <v>0.9891026020050049</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.9926400184631348</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3031212091445923</v>
+        <v>0.9891026020050049</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7536059617996216</v>
+        <v>0.9421952366828918</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5654358863830566</v>
+        <v>0.9651966691017151</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7190994620323181</v>
+        <v>0.9615911841392517</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6422995328903198</v>
+        <v>0.9582365751266479</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4273944795131683</v>
+        <v>0.6695922017097473</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5286558270454407</v>
+        <v>0.8756187558174133</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6699537634849548</v>
+        <v>0.9659656286239624</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5074731111526489</v>
+        <v>0.5431577563285828</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7095422148704529</v>
+        <v>0.9919420480728149</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.938995897769928</v>
+        <v>0.9277506470680237</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8206612467765808</v>
+        <v>0.9858450889587402</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.630301296710968</v>
+        <v>0.9741766452789307</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7947080731391907</v>
+        <v>0.9566442966461182</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.44451043009758</v>
+        <v>0.9361146092414856</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9625058174133301</v>
+        <v>0.5194971561431885</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6248493194580078</v>
+        <v>0.2965937852859497</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4799229502677917</v>
+        <v>0.7936103343963623</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8675543069839478</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6923288702964783</v>
+        <v>0.7464761137962341</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5987653732299805</v>
+        <v>0.9242671728134155</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9024448990821838</v>
+        <v>0.9469364285469055</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5826312899589539</v>
+        <v>0.6010196208953857</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9189920425415039</v>
+        <v>0.5799457430839539</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3862737417221069</v>
+        <v>0.7290043234825134</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6157294511795044</v>
+        <v>0.9404396414756775</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5220516324043274</v>
+        <v>0.9552857875823975</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5928791761398315</v>
+        <v>0.8878042697906494</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.903459906578064</v>
+        <v>0.8460450172424316</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7097048163414001</v>
+        <v>0.7686643004417419</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4000754654407501</v>
+        <v>0.4615152776241302</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3654120564460754</v>
+        <v>0.9785289764404297</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4242678284645081</v>
+        <v>0.7897900938987732</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8157302141189575</v>
+        <v>0.6932511329650879</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3276583254337311</v>
+        <v>0.9709003567695618</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7606085538864136</v>
+        <v>0.8020464181900024</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8826607465744019</v>
+        <v>0.8723800182342529</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4169285893440247</v>
+        <v>0.4139464795589447</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.540374219417572</v>
+        <v>0.9224673509597778</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7416272163391113</v>
+        <v>0.9960358738899231</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.8847956657409668</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6488485336303711</v>
+        <v>0.2789953052997589</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.296147882938385</v>
+        <v>0.9217762351036072</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.627417266368866</v>
+        <v>0.8847956657409668</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.296147882938385</v>
+        <v>0.4859506189823151</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8554276823997498</v>
+        <v>0.9898521304130554</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3963479995727539</v>
+        <v>0.9981316924095154</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4943763613700867</v>
+        <v>0.9985958933830261</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6239264607429504</v>
+        <v>0.8653748631477356</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.63877934217453</v>
+        <v>0.8898277282714844</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7843965888023376</v>
+        <v>0.9583064317703247</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.42342209815979</v>
+        <v>0.8700568675994873</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.714313268661499</v>
+        <v>0.9918911457061768</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6985145807266235</v>
+        <v>0.664134681224823</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.543927788734436</v>
+        <v>0.3912414312362671</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6891159415245056</v>
+        <v>0.8661225438117981</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.500464916229248</v>
+        <v>0.8661225438117981</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.538573145866394</v>
+        <v>0.514070987701416</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6285639405250549</v>
+        <v>0.8661225438117981</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6851537823677063</v>
+        <v>0.5625390410423279</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.753018319606781</v>
+        <v>0.9618204236030579</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6708612442016602</v>
+        <v>0.4921742379665375</v>
       </c>
     </row>
     <row r="72">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6028216481208801</v>
+        <v>0.9682567119598389</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8354460597038269</v>
+        <v>0.9721487164497375</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.70163494348526</v>
+        <v>0.877537727355957</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3446081280708313</v>
+        <v>0.6141241788864136</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8034074902534485</v>
+        <v>0.9721487164497375</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.628589928150177</v>
+        <v>0.9449169635772705</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6988663673400879</v>
+        <v>0.9721487164497375</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.3917697668075562</v>
+        <v>0.9871425628662109</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.442369669675827</v>
+        <v>0.928823709487915</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.6021198630332947</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7886843681335449</v>
+        <v>0.928823709487915</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.9546377658843994</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.610268235206604</v>
+        <v>0.9546377658843994</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7013307213783264</v>
+        <v>0.9931366443634033</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7754970192909241</v>
+        <v>0.7968413829803467</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8339852094650269</v>
+        <v>0.8271701335906982</v>
       </c>
     </row>
     <row r="88">
@@ -2891,14 +2891,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4502710998058319</v>
+        <v>0.9098448157310486</v>
       </c>
     </row>
     <row r="89">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7797179222106934</v>
+        <v>0.9800395369529724</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3709527850151062</v>
+        <v>0.9564456343650818</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.7321661710739136</v>
+        <v>0.9604507088661194</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7083261013031006</v>
+        <v>0.9632214307785034</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4117411375045776</v>
+        <v>0.9707708954811096</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4535478949546814</v>
+        <v>0.9743282794952393</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8559901118278503</v>
+        <v>0.9671204090118408</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4163823425769806</v>
+        <v>0.582673192024231</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4451983869075775</v>
+        <v>0.362514466047287</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7752252221107483</v>
+        <v>0.983304500579834</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.3155758082866669</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9345927238464355</v>
+        <v>0.9398236274719238</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7403212189674377</v>
+        <v>0.9440625905990601</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4322798252105713</v>
+        <v>0.3177582025527954</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.3208917379379272</v>
+        <v>0.9810186624526978</v>
       </c>
     </row>
     <row r="104">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7782143354415894</v>
+        <v>0.9445611834526062</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.64445561170578</v>
+        <v>0.9609394073486328</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3273999691009521</v>
+        <v>0.5290058255195618</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8821656107902527</v>
+        <v>0.5460523366928101</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.617134153842926</v>
+        <v>0.7046385407447815</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7849917411804199</v>
+        <v>0.6970968842506409</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6923288702964783</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="111">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6094476580619812</v>
+        <v>0.4890002608299255</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7221885919570923</v>
+        <v>0.4667731523513794</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8115470409393311</v>
+        <v>0.9004607796669006</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.938995897769928</v>
+        <v>0.8251082897186279</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7214856743812561</v>
+        <v>0.4344490468502045</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7813068628311157</v>
+        <v>0.8214254975318909</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8674964904785156</v>
+        <v>0.9566393494606018</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5544880032539368</v>
+        <v>0.5694295167922974</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.9426848292350769</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8550837635993958</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6925240755081177</v>
+        <v>0.9522685408592224</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.337986171245575</v>
+        <v>0.9941803216934204</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4587315917015076</v>
+        <v>0.9522685408592224</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5032578706741333</v>
+        <v>0.9941803216934204</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5026448369026184</v>
+        <v>0.9522685408592224</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8647257685661316</v>
+        <v>0.9990487694740295</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6256902813911438</v>
+        <v>0.5926058888435364</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6223782896995544</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5271565318107605</v>
+        <v>0.9630038142204285</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3963479995727539</v>
+        <v>0.9207398891448975</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4429307579994202</v>
+        <v>0.9899256229400635</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.690392792224884</v>
+        <v>0.4781209528446198</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6130252480506897</v>
+        <v>0.9933100938796997</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4329630136489868</v>
+        <v>0.4190477132797241</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8228409290313721</v>
+        <v>0.8756982684135437</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4885689616203308</v>
+        <v>0.5183206796646118</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7222287058830261</v>
+        <v>0.9948075413703918</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6463868618011475</v>
+        <v>0.9366093873977661</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5699820518493652</v>
+        <v>0.9958933591842651</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.270877867937088</v>
+        <v>0.9593372344970703</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7005686163902283</v>
+        <v>0.8402801752090454</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6722685694694519</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.627417266368866</v>
+        <v>0.6781198382377625</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7182374000549316</v>
+        <v>0.9879118204116821</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6981102824211121</v>
+        <v>0.6781198382377625</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3178269565105438</v>
+        <v>0.9706883430480957</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7779128551483154</v>
+        <v>0.5625390410423279</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9084537029266357</v>
+        <v>0.9582543969154358</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8959614038467407</v>
+        <v>0.6248735189437866</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.3980712592601776</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8821261525154114</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.3276583254337311</v>
+        <v>0.5848019123077393</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8471463918685913</v>
+        <v>0.9906427264213562</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6760367155075073</v>
+        <v>0.7860578298568726</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5189421772956848</v>
+        <v>0.9792699813842773</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8442592620849609</v>
+        <v>0.6998962759971619</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4943763613700867</v>
+        <v>0.9943563342094421</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.5737288594245911</v>
+        <v>0.9498521685600281</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4429307579994202</v>
+        <v>0.9981350898742676</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.7219430208206177</v>
+        <v>0.7790176272392273</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6128465533256531</v>
+        <v>0.9094241261482239</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.8508626222610474</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6988668441772461</v>
+        <v>0.4191469848155975</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6846672296524048</v>
+        <v>0.7703490853309631</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.8367169499397278</v>
+        <v>0.8980512022972107</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6225519180297852</v>
+        <v>0.9198221564292908</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5851820707321167</v>
+        <v>0.4050787091255188</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6985868215560913</v>
+        <v>0.4447833299636841</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4885689616203308</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.627417266368866</v>
+        <v>0.4050787091255188</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6382559537887573</v>
+        <v>0.478694885969162</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5565496683120728</v>
+        <v>0.9952459931373596</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3654120564460754</v>
+        <v>0.9272530674934387</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.3235442340373993</v>
+        <v>0.9633749723434448</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5829260349273682</v>
+        <v>0.9272530674934387</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6702196002006531</v>
+        <v>0.9272530674934387</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6219781041145325</v>
+        <v>0.9633749723434448</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7948220372200012</v>
+        <v>0.9964062571525574</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7502431869506836</v>
+        <v>0.9962841868400574</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8821656107902527</v>
+        <v>0.8574219346046448</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.5274894237518311</v>
+        <v>0.5398514270782471</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9019997715950012</v>
+        <v>0.9870953559875488</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4266085028648376</v>
+        <v>0.3957661092281342</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6314167976379395</v>
+        <v>0.9797515273094177</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7109608054161072</v>
+        <v>0.8810181617736816</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6911796927452087</v>
+        <v>0.8971526622772217</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4231196939945221</v>
+        <v>0.9678902626037598</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.7795644998550415</v>
+        <v>0.9748381376266479</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.8371472358703613</v>
+        <v>0.7941313982009888</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6551989912986755</v>
+        <v>0.8986318707466125</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5829260349273682</v>
+        <v>0.5340509414672852</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4943763613700867</v>
+        <v>0.9330406188964844</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8868979215621948</v>
+        <v>0.9773329496383667</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.6245357394218445</v>
+        <v>0.8427033424377441</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5109949111938477</v>
+        <v>0.5591036081314087</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8396730422973633</v>
+        <v>0.989884614944458</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.8614441752433777</v>
+        <v>0.9752101898193359</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4018015563488007</v>
+        <v>0.9052388668060303</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4852465093135834</v>
+        <v>0.9888855218887329</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4674793779850006</v>
+        <v>0.6499788165092468</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.6166091561317444</v>
+        <v>0.9847005605697632</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3781700134277344</v>
+        <v>0.9777387380599976</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8623082637786865</v>
+        <v>0.8050654530525208</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.678358256816864</v>
+        <v>0.3154245316982269</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7284222841262817</v>
+        <v>0.5389394760131836</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4885689616203308</v>
+        <v>0.998108983039856</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.296147882938385</v>
+        <v>0.5018030405044556</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4534795582294464</v>
+        <v>0.9929613471031189</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4231350719928741</v>
+        <v>0.5037688612937927</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.279547780752182</v>
+        <v>0.9932243227958679</v>
       </c>
     </row>
   </sheetData>
